--- a/Code/Results/Cases/Case_4_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.17696600033137</v>
+        <v>17.43031725749783</v>
       </c>
       <c r="C2">
-        <v>10.63447960419352</v>
+        <v>9.625944543599644</v>
       </c>
       <c r="D2">
-        <v>8.832632791202363</v>
+        <v>13.75508891768489</v>
       </c>
       <c r="E2">
-        <v>8.389731668683249</v>
+        <v>14.45603335894962</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.27253745967014</v>
+        <v>38.68769144892295</v>
       </c>
       <c r="H2">
-        <v>10.15548569824441</v>
+        <v>16.79837864904862</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.445156080425624</v>
+        <v>8.781532708085813</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.235592154925491</v>
+        <v>11.84481059608656</v>
       </c>
       <c r="M2">
-        <v>12.6136558121868</v>
+        <v>17.2211721955651</v>
       </c>
       <c r="N2">
-        <v>12.87466866798723</v>
+        <v>19.35149609295941</v>
       </c>
       <c r="O2">
-        <v>17.3356504269929</v>
+        <v>26.89312523476997</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.97339144734243</v>
+        <v>17.08485573599801</v>
       </c>
       <c r="C3">
-        <v>10.26745099081901</v>
+        <v>9.489411025162307</v>
       </c>
       <c r="D3">
-        <v>8.713784242203365</v>
+        <v>13.77147696068225</v>
       </c>
       <c r="E3">
-        <v>8.465617371993611</v>
+        <v>14.49470588287755</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.681492495691</v>
+        <v>38.73187193728938</v>
       </c>
       <c r="H3">
-        <v>10.16365655231378</v>
+        <v>16.84451031635287</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.449190980160167</v>
+        <v>8.784595368689303</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.129619570904986</v>
+        <v>11.84898693360549</v>
       </c>
       <c r="M3">
-        <v>12.10716773885019</v>
+        <v>17.15137770190502</v>
       </c>
       <c r="N3">
-        <v>13.0469053336876</v>
+        <v>19.40762887503675</v>
       </c>
       <c r="O3">
-        <v>17.21489976760932</v>
+        <v>26.95996148546493</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.19616687609773</v>
+        <v>16.87181367714146</v>
       </c>
       <c r="C4">
-        <v>10.03496719756514</v>
+        <v>9.403955871391167</v>
       </c>
       <c r="D4">
-        <v>8.645173303364741</v>
+        <v>13.78386064056383</v>
       </c>
       <c r="E4">
-        <v>8.515203789829769</v>
+        <v>14.51996197516296</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.3413490504815</v>
+        <v>38.76979946123107</v>
       </c>
       <c r="H4">
-        <v>10.17531961897348</v>
+        <v>16.87553636842249</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.451983331741405</v>
+        <v>8.786634868492484</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.066408040079695</v>
+        <v>11.85291002063595</v>
       </c>
       <c r="M4">
-        <v>11.78921339439515</v>
+        <v>17.11066522042558</v>
       </c>
       <c r="N4">
-        <v>13.15587729914489</v>
+        <v>19.44391276114461</v>
       </c>
       <c r="O4">
-        <v>17.15463291162686</v>
+        <v>27.0065236800211</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.86995428927473</v>
+        <v>16.78488108527464</v>
       </c>
       <c r="C5">
-        <v>9.938528434219949</v>
+        <v>9.368749089672153</v>
       </c>
       <c r="D5">
-        <v>8.618318336339808</v>
+        <v>13.78949099723197</v>
       </c>
       <c r="E5">
-        <v>8.536152986901508</v>
+        <v>14.53063468063497</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.20849841149228</v>
+        <v>38.78796529561879</v>
       </c>
       <c r="H5">
-        <v>10.18168951879729</v>
+        <v>16.88885864973559</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.453200037248482</v>
+        <v>8.787506090710174</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.041135000248692</v>
+        <v>11.85485130391644</v>
       </c>
       <c r="M5">
-        <v>11.65807575934142</v>
+        <v>17.0946245510272</v>
       </c>
       <c r="N5">
-        <v>13.20109971778941</v>
+        <v>19.45915705994924</v>
       </c>
       <c r="O5">
-        <v>17.13347136330837</v>
+        <v>27.02688496282124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.81521836928656</v>
+        <v>16.77044244816542</v>
       </c>
       <c r="C6">
-        <v>9.922415095412029</v>
+        <v>9.362880634183023</v>
       </c>
       <c r="D6">
-        <v>8.613925966498105</v>
+        <v>13.79046118300982</v>
       </c>
       <c r="E6">
-        <v>8.539676138777537</v>
+        <v>14.53242988545739</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.18678722876158</v>
+        <v>38.79114520280768</v>
       </c>
       <c r="H6">
-        <v>10.18284332702207</v>
+        <v>16.89111180045638</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.453406818938022</v>
+        <v>8.787653182661201</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.036968347424594</v>
+        <v>11.85519436966675</v>
       </c>
       <c r="M6">
-        <v>11.63621150016774</v>
+        <v>17.09199455245139</v>
       </c>
       <c r="N6">
-        <v>13.2086583071431</v>
+        <v>19.46171607921167</v>
       </c>
       <c r="O6">
-        <v>17.13015992217492</v>
+        <v>27.0303496254343</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.19180567871067</v>
+        <v>16.87064158778237</v>
       </c>
       <c r="C7">
-        <v>10.03367334314316</v>
+        <v>9.403482578137531</v>
       </c>
       <c r="D7">
-        <v>8.644806647698761</v>
+        <v>13.78393420915499</v>
       </c>
       <c r="E7">
-        <v>8.515483325149821</v>
+        <v>14.52010436887243</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.33953402334535</v>
+        <v>38.77003348782416</v>
       </c>
       <c r="H7">
-        <v>10.17539904939346</v>
+        <v>16.87571328887044</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.451999422083599</v>
+        <v>8.786646455533354</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.06606520540871</v>
+        <v>11.85293481315677</v>
       </c>
       <c r="M7">
-        <v>11.78745091934502</v>
+        <v>17.11044664871249</v>
       </c>
       <c r="N7">
-        <v>13.15648387417651</v>
+        <v>19.44411649385581</v>
       </c>
       <c r="O7">
-        <v>17.15433388777482</v>
+        <v>27.00679266754035</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.76997006993258</v>
+        <v>17.31146380494976</v>
       </c>
       <c r="C8">
-        <v>10.50945946265265</v>
+        <v>9.57921944540934</v>
       </c>
       <c r="D8">
-        <v>8.79075370280469</v>
+        <v>13.76025786309675</v>
       </c>
       <c r="E8">
-        <v>8.415269698712139</v>
+        <v>14.4690544498579</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.06405010674318</v>
+        <v>38.70068013517535</v>
       </c>
       <c r="H8">
-        <v>10.15689098985831</v>
+        <v>16.81372408935948</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.446481710995439</v>
+        <v>8.782555784571999</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.198679454932202</v>
+        <v>11.8459691438642</v>
       </c>
       <c r="M8">
-        <v>12.44056859963744</v>
+        <v>17.19666960814494</v>
       </c>
       <c r="N8">
-        <v>12.9333916836652</v>
+        <v>19.37047400727203</v>
       </c>
       <c r="O8">
-        <v>17.29108315796358</v>
+        <v>26.91502240705616</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.59459543610961</v>
+        <v>18.16358813256808</v>
       </c>
       <c r="C9">
-        <v>11.38240165563858</v>
+        <v>9.909898698585886</v>
       </c>
       <c r="D9">
-        <v>9.111124556144873</v>
+        <v>13.73223559167794</v>
       </c>
       <c r="E9">
-        <v>8.242986117017418</v>
+        <v>14.3809037401354</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.6628458175848</v>
+        <v>38.6505775334454</v>
       </c>
       <c r="H9">
-        <v>10.17575991862652</v>
+        <v>16.71360692622949</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.438179724864305</v>
+        <v>8.775790233003345</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.472586459541154</v>
+        <v>11.84304923805124</v>
       </c>
       <c r="M9">
-        <v>13.65906153094475</v>
+        <v>17.38221822880443</v>
       </c>
       <c r="N9">
-        <v>12.52116966580821</v>
+        <v>19.24043542027594</v>
       </c>
       <c r="O9">
-        <v>17.67306630771298</v>
+        <v>26.77899432307539</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.5517160314557</v>
+        <v>18.77576692656239</v>
       </c>
       <c r="C10">
-        <v>11.98312348788705</v>
+        <v>10.14298443005685</v>
       </c>
       <c r="D10">
-        <v>9.366616056914209</v>
+        <v>13.7228470318766</v>
       </c>
       <c r="E10">
-        <v>8.131927442867855</v>
+        <v>14.32338615853562</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.94167289939066</v>
+        <v>38.6663224789155</v>
       </c>
       <c r="H10">
-        <v>10.22658301369487</v>
+        <v>16.65313909344765</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.433646244645267</v>
+        <v>8.771578067811422</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.681095258240308</v>
+        <v>11.84739278269169</v>
       </c>
       <c r="M10">
-        <v>14.50845848610698</v>
+        <v>17.52784078013558</v>
       </c>
       <c r="N10">
-        <v>12.23335856228499</v>
+        <v>19.15358610065249</v>
       </c>
       <c r="O10">
-        <v>18.02770429596325</v>
+        <v>26.70596250278965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.39495187983934</v>
+        <v>19.05000083549895</v>
       </c>
       <c r="C11">
-        <v>12.2469272122339</v>
+        <v>10.24660672179805</v>
       </c>
       <c r="D11">
-        <v>9.487036075250549</v>
+        <v>13.72100027372758</v>
       </c>
       <c r="E11">
-        <v>8.084957245430752</v>
+        <v>14.29878441266829</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>31.5449997184742</v>
+        <v>38.68490617209718</v>
       </c>
       <c r="H11">
-        <v>10.25844229522946</v>
+        <v>16.6284756236205</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.431931772450795</v>
+        <v>8.769824992145328</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.777286604373423</v>
+        <v>11.85076388925958</v>
       </c>
       <c r="M11">
-        <v>14.88364725973378</v>
+        <v>17.59594070397812</v>
       </c>
       <c r="N11">
-        <v>12.10563095061606</v>
+        <v>19.11594775380985</v>
       </c>
       <c r="O11">
-        <v>18.20595096910741</v>
+        <v>26.67860361500412</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.70756940863095</v>
+        <v>19.1531384332507</v>
       </c>
       <c r="C12">
-        <v>12.34541764042511</v>
+        <v>10.28547765654989</v>
       </c>
       <c r="D12">
-        <v>9.533223360721234</v>
+        <v>13.72064862660878</v>
       </c>
       <c r="E12">
-        <v>8.067698615143588</v>
+        <v>14.28969250002782</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.77647592208136</v>
+        <v>38.69358367546864</v>
       </c>
       <c r="H12">
-        <v>10.27182151144562</v>
+        <v>16.61954533655253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.431333310998673</v>
+        <v>8.769184471185238</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.813884877395127</v>
+        <v>11.85223974345115</v>
       </c>
       <c r="M12">
-        <v>15.0240271898628</v>
+        <v>17.62198040867753</v>
       </c>
       <c r="N12">
-        <v>12.05772039870137</v>
+        <v>19.10196285620341</v>
       </c>
       <c r="O12">
-        <v>18.27594132798237</v>
+        <v>26.669088113474</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.64053834391994</v>
+        <v>19.13095892502989</v>
       </c>
       <c r="C13">
-        <v>12.32426914163387</v>
+        <v>10.27712283878137</v>
       </c>
       <c r="D13">
-        <v>9.523250261839033</v>
+        <v>13.7207089130854</v>
       </c>
       <c r="E13">
-        <v>8.071391796254201</v>
+        <v>14.29164064209415</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.72649096271273</v>
+        <v>38.69164191960317</v>
       </c>
       <c r="H13">
-        <v>10.26888065953105</v>
+        <v>16.62145042814392</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.431459929361008</v>
+        <v>8.76932138305024</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.805995408601328</v>
+        <v>11.85191305056802</v>
       </c>
       <c r="M13">
-        <v>14.99387046248216</v>
+        <v>17.61636133988167</v>
       </c>
       <c r="N13">
-        <v>12.06801849758513</v>
+        <v>19.10496285296142</v>
       </c>
       <c r="O13">
-        <v>18.26075592400577</v>
+        <v>26.67109985649998</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.42080492422621</v>
+        <v>19.05850077263262</v>
       </c>
       <c r="C14">
-        <v>12.25505849273049</v>
+        <v>10.2498121667629</v>
       </c>
       <c r="D14">
-        <v>9.490824263335345</v>
+        <v>13.72096438124304</v>
       </c>
       <c r="E14">
-        <v>8.083526681605147</v>
+        <v>14.29803192475051</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>31.5639836077191</v>
+        <v>38.68558722006983</v>
       </c>
       <c r="H14">
-        <v>10.25951632905105</v>
+        <v>16.62773272016463</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.431881514497574</v>
+        <v>8.769771829185688</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.7802942152507</v>
+        <v>11.85088132257055</v>
       </c>
       <c r="M14">
-        <v>14.89523081695444</v>
+        <v>17.59807804849154</v>
       </c>
       <c r="N14">
-        <v>12.10168017214325</v>
+        <v>19.11479184359681</v>
       </c>
       <c r="O14">
-        <v>18.21165885037534</v>
+        <v>26.67780383179138</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.28534179483427</v>
+        <v>19.01402295107649</v>
       </c>
       <c r="C15">
-        <v>12.21248063094682</v>
+        <v>10.23303495356217</v>
       </c>
       <c r="D15">
-        <v>9.471038341699256</v>
+        <v>13.72116611143096</v>
       </c>
       <c r="E15">
-        <v>8.091028946312964</v>
+        <v>14.30197595528073</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>31.46483239084169</v>
+        <v>38.68209206209042</v>
       </c>
       <c r="H15">
-        <v>10.25395335145394</v>
+        <v>16.63163410864724</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.432146383405961</v>
+        <v>8.770050775339804</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.764573410536567</v>
+        <v>11.85027527163036</v>
       </c>
       <c r="M15">
-        <v>14.83458809338875</v>
+        <v>17.58691133525956</v>
       </c>
       <c r="N15">
-        <v>12.12235838233982</v>
+        <v>19.12084724825276</v>
       </c>
       <c r="O15">
-        <v>18.18191169938974</v>
+        <v>26.68202025799881</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.4956674246849</v>
+        <v>18.75775109384371</v>
       </c>
       <c r="C16">
-        <v>11.96568876207149</v>
+        <v>10.13616207208194</v>
       </c>
       <c r="D16">
-        <v>9.358829338777676</v>
+        <v>13.72301642772933</v>
       </c>
       <c r="E16">
-        <v>8.135069958268367</v>
+        <v>14.32502534941173</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>30.90267019500451</v>
+        <v>38.66533767339793</v>
       </c>
       <c r="H16">
-        <v>10.22468176479559</v>
+        <v>16.65480815887229</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.433765351264134</v>
+        <v>8.771695906586867</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.674834154479466</v>
+        <v>11.84720043534458</v>
       </c>
       <c r="M16">
-        <v>14.4837059299623</v>
+        <v>17.52342634676856</v>
       </c>
       <c r="N16">
-        <v>12.24176996467729</v>
+        <v>19.15608339920653</v>
       </c>
       <c r="O16">
-        <v>18.01640110961314</v>
+        <v>26.70786859888087</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.9992217596977</v>
+        <v>18.59937680438963</v>
       </c>
       <c r="C17">
-        <v>11.8118305686652</v>
+        <v>10.07610051723811</v>
       </c>
       <c r="D17">
-        <v>9.291055586493064</v>
+        <v>13.72477182136073</v>
       </c>
       <c r="E17">
-        <v>8.163009046619948</v>
+        <v>14.33956539769466</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.56326110527302</v>
+        <v>38.65798367811375</v>
       </c>
       <c r="H17">
-        <v>10.20900438159024</v>
+        <v>16.66975325379403</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.434848134164668</v>
+        <v>8.772746821318083</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.620110611463923</v>
+        <v>11.84567054047533</v>
       </c>
       <c r="M17">
-        <v>14.26551563905111</v>
+        <v>17.4849449895912</v>
       </c>
       <c r="N17">
-        <v>12.31584208683736</v>
+        <v>19.17817786372924</v>
       </c>
       <c r="O17">
-        <v>17.91924317870741</v>
+        <v>26.72522871241574</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.70924462275698</v>
+        <v>18.50788961518433</v>
       </c>
       <c r="C18">
-        <v>11.72244642177215</v>
+        <v>10.04132915709196</v>
       </c>
       <c r="D18">
-        <v>9.252469829989323</v>
+        <v>13.72600971359642</v>
       </c>
       <c r="E18">
-        <v>8.179411977802811</v>
+        <v>14.3480756263936</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.370078845492</v>
+        <v>38.65482910450606</v>
       </c>
       <c r="H18">
-        <v>10.20080631824848</v>
+        <v>16.67861691787734</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.435503611805911</v>
+        <v>8.773366634557389</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.588762304949606</v>
+        <v>11.84492199395957</v>
       </c>
       <c r="M18">
-        <v>14.13896755485331</v>
+        <v>17.46298710540325</v>
       </c>
       <c r="N18">
-        <v>12.35874764366822</v>
+        <v>19.19106206972035</v>
       </c>
       <c r="O18">
-        <v>17.86494994720708</v>
+        <v>26.73576563026863</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.61029957933842</v>
+        <v>18.47684894839226</v>
       </c>
       <c r="C19">
-        <v>11.6920313003721</v>
+        <v>10.02951812414573</v>
       </c>
       <c r="D19">
-        <v>9.239473859201423</v>
+        <v>13.72646806756415</v>
       </c>
       <c r="E19">
-        <v>8.185022435688127</v>
+        <v>14.35098233883516</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.30502343549355</v>
+        <v>38.65394573247898</v>
       </c>
       <c r="H19">
-        <v>10.19816951309391</v>
+        <v>16.68166395950081</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.435731138095077</v>
+        <v>8.77357913346056</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.578170784144667</v>
+        <v>11.84469115804741</v>
       </c>
       <c r="M19">
-        <v>14.09594291204724</v>
+        <v>17.45558315160757</v>
       </c>
       <c r="N19">
-        <v>12.3733265696974</v>
+        <v>19.19545470738565</v>
       </c>
       <c r="O19">
-        <v>17.84683828853926</v>
+        <v>26.73942797773737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.05252772322656</v>
+        <v>18.61627757302591</v>
       </c>
       <c r="C20">
-        <v>11.82830139276214</v>
+        <v>10.08251767822602</v>
       </c>
       <c r="D20">
-        <v>9.298229362749526</v>
+        <v>13.72456134120976</v>
       </c>
       <c r="E20">
-        <v>8.160000286861603</v>
+        <v>14.33800235653538</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.59918167304097</v>
+        <v>38.65865524910448</v>
       </c>
       <c r="H20">
-        <v>10.21058806546674</v>
+        <v>16.66813462067265</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.434729481633431</v>
+        <v>8.772633361327763</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.625923006472582</v>
+        <v>11.84581980956027</v>
       </c>
       <c r="M20">
-        <v>14.28885178486538</v>
+        <v>17.48902333249409</v>
       </c>
       <c r="N20">
-        <v>12.30792583099199</v>
+        <v>19.17580765625751</v>
       </c>
       <c r="O20">
-        <v>17.9294208598817</v>
+        <v>26.72332357342468</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.48552714564183</v>
+        <v>19.07980347554717</v>
       </c>
       <c r="C21">
-        <v>12.2754258235704</v>
+        <v>10.25784414726369</v>
       </c>
       <c r="D21">
-        <v>9.500332768479382</v>
+        <v>13.7208799161355</v>
       </c>
       <c r="E21">
-        <v>8.079947897088715</v>
+        <v>14.2961485689012</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.61163500010672</v>
+        <v>38.68732114069272</v>
       </c>
       <c r="H21">
-        <v>10.26223071497251</v>
+        <v>16.62587634984677</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.431756300353455</v>
+        <v>8.769638889976861</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.787838744882015</v>
+        <v>11.85117896850505</v>
       </c>
       <c r="M21">
-        <v>14.92425029276665</v>
+        <v>17.60344158407528</v>
       </c>
       <c r="N21">
-        <v>12.09178053409871</v>
+        <v>19.11189756682018</v>
       </c>
       <c r="O21">
-        <v>18.22601176790223</v>
+        <v>26.67581177552943</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.38307173175207</v>
+        <v>19.37857172397374</v>
       </c>
       <c r="C22">
-        <v>12.55943504450381</v>
+        <v>10.37027224694675</v>
       </c>
       <c r="D22">
-        <v>9.63583225651934</v>
+        <v>13.72049990518639</v>
       </c>
       <c r="E22">
-        <v>8.030715566002389</v>
+        <v>14.27010145435497</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32.29083493342076</v>
+        <v>38.71561452849729</v>
       </c>
       <c r="H22">
-        <v>10.30367261944247</v>
+        <v>16.60064357804893</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.430109505247377</v>
+        <v>8.767817765414817</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.894658299893206</v>
+        <v>11.8558424222935</v>
       </c>
       <c r="M22">
-        <v>15.32960667226022</v>
+        <v>17.67968063586416</v>
       </c>
       <c r="N22">
-        <v>11.95318099155575</v>
+        <v>19.07168988627236</v>
       </c>
       <c r="O22">
-        <v>18.43440153865664</v>
+        <v>26.64968423831109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.90757983508857</v>
+        <v>19.21952604535407</v>
       </c>
       <c r="C23">
-        <v>12.40861822666215</v>
+        <v>10.31047173483442</v>
       </c>
       <c r="D23">
-        <v>9.5632066625462</v>
+        <v>13.72051768468714</v>
       </c>
       <c r="E23">
-        <v>8.056703239406371</v>
+        <v>14.28388390564089</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.9267608101389</v>
+        <v>38.69964032214261</v>
       </c>
       <c r="H23">
-        <v>10.28083148764198</v>
+        <v>16.61389241749652</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.430961042812682</v>
+        <v>8.768777334259187</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.8375616223922</v>
+        <v>11.85324768661736</v>
       </c>
       <c r="M23">
-        <v>15.11419125183883</v>
+        <v>17.638861888502</v>
       </c>
       <c r="N23">
-        <v>12.02691110488235</v>
+        <v>19.0930069371162</v>
       </c>
       <c r="O23">
-        <v>18.32183039890545</v>
+        <v>26.66317799840384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.02844231799426</v>
+        <v>18.60863808511558</v>
       </c>
       <c r="C24">
-        <v>11.82085782339123</v>
+        <v>10.07961722927716</v>
       </c>
       <c r="D24">
-        <v>9.29498491899782</v>
+        <v>13.72465578687283</v>
       </c>
       <c r="E24">
-        <v>8.161359488243175</v>
+        <v>14.33870853717298</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.58293590781348</v>
+        <v>38.65834828833533</v>
       </c>
       <c r="H24">
-        <v>10.20986954761435</v>
+        <v>16.6688655589184</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.434783021800479</v>
+        <v>8.772684607899784</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.623294869230408</v>
+        <v>11.8457519168239</v>
       </c>
       <c r="M24">
-        <v>14.27830495662009</v>
+        <v>17.48717899681149</v>
       </c>
       <c r="N24">
-        <v>12.31150377171769</v>
+        <v>19.17687866066305</v>
       </c>
       <c r="O24">
-        <v>17.92481466275541</v>
+        <v>26.72418315384617</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.83686290519813</v>
+        <v>17.93506089655152</v>
       </c>
       <c r="C25">
-        <v>11.15312944502762</v>
+        <v>9.822077835351577</v>
       </c>
       <c r="D25">
-        <v>9.020865259677688</v>
+        <v>13.73784746164813</v>
       </c>
       <c r="E25">
-        <v>8.286926184770074</v>
+        <v>14.40347515194868</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.21167704644255</v>
+        <v>38.65491001635363</v>
       </c>
       <c r="H25">
-        <v>10.16440579182031</v>
+        <v>16.73839386818306</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.440153062321686</v>
+        <v>8.777486766856068</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.397126081038276</v>
+        <v>11.84269512026466</v>
       </c>
       <c r="M25">
-        <v>13.33698221301944</v>
+        <v>17.33033383953335</v>
       </c>
       <c r="N25">
-        <v>12.63002072001108</v>
+        <v>19.27408305388925</v>
       </c>
       <c r="O25">
-        <v>17.55704178201809</v>
+        <v>26.81107635660421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.43031725749783</v>
+        <v>19.17696600033139</v>
       </c>
       <c r="C2">
-        <v>9.625944543599644</v>
+        <v>10.63447960419362</v>
       </c>
       <c r="D2">
-        <v>13.75508891768489</v>
+        <v>8.83263279120238</v>
       </c>
       <c r="E2">
-        <v>14.45603335894962</v>
+        <v>8.389731668683185</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.68769144892295</v>
+        <v>28.27253745966985</v>
       </c>
       <c r="H2">
-        <v>16.79837864904862</v>
+        <v>10.15548569824441</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.781532708085813</v>
+        <v>5.445156080425558</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.84481059608656</v>
+        <v>7.235592154925476</v>
       </c>
       <c r="M2">
-        <v>17.2211721955651</v>
+        <v>12.61365581218678</v>
       </c>
       <c r="N2">
-        <v>19.35149609295941</v>
+        <v>12.87466866798717</v>
       </c>
       <c r="O2">
-        <v>26.89312523476997</v>
+        <v>17.33565042699279</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.08485573599801</v>
+        <v>17.97339144734244</v>
       </c>
       <c r="C3">
-        <v>9.489411025162307</v>
+        <v>10.26745099081898</v>
       </c>
       <c r="D3">
-        <v>13.77147696068225</v>
+        <v>8.71378424220323</v>
       </c>
       <c r="E3">
-        <v>14.49470588287755</v>
+        <v>8.465617371993673</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.73187193728938</v>
+        <v>27.68149249569111</v>
       </c>
       <c r="H3">
-        <v>16.84451031635287</v>
+        <v>10.16365655231378</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.784595368689303</v>
+        <v>5.449190980160302</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.84898693360549</v>
+        <v>7.129619570904977</v>
       </c>
       <c r="M3">
-        <v>17.15137770190502</v>
+        <v>12.1071677388502</v>
       </c>
       <c r="N3">
-        <v>19.40762887503675</v>
+        <v>13.04690533368763</v>
       </c>
       <c r="O3">
-        <v>26.95996148546493</v>
+        <v>17.21489976760939</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.87181367714146</v>
+        <v>17.19616687609773</v>
       </c>
       <c r="C4">
-        <v>9.403955871391167</v>
+        <v>10.03496719756535</v>
       </c>
       <c r="D4">
-        <v>13.78386064056383</v>
+        <v>8.64517330336473</v>
       </c>
       <c r="E4">
-        <v>14.51996197516296</v>
+        <v>8.515203789829954</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>38.76979946123107</v>
+        <v>27.34134905048133</v>
       </c>
       <c r="H4">
-        <v>16.87553636842249</v>
+        <v>10.17531961897358</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.786634868492484</v>
+        <v>5.451983331741573</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.85291002063595</v>
+        <v>7.066408040079793</v>
       </c>
       <c r="M4">
-        <v>17.11066522042558</v>
+        <v>11.7892133943952</v>
       </c>
       <c r="N4">
-        <v>19.44391276114461</v>
+        <v>13.15587729914483</v>
       </c>
       <c r="O4">
-        <v>27.0065236800211</v>
+        <v>17.15463291162685</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.78488108527464</v>
+        <v>16.86995428927477</v>
       </c>
       <c r="C5">
-        <v>9.368749089672153</v>
+        <v>9.938528434219801</v>
       </c>
       <c r="D5">
-        <v>13.78949099723197</v>
+        <v>8.618318336339808</v>
       </c>
       <c r="E5">
-        <v>14.53063468063497</v>
+        <v>8.536152986901447</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.78796529561879</v>
+        <v>27.20849841149246</v>
       </c>
       <c r="H5">
-        <v>16.88885864973559</v>
+        <v>10.18168951879724</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.787506090710174</v>
+        <v>5.453200037248415</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.85485130391644</v>
+        <v>7.041135000248689</v>
       </c>
       <c r="M5">
-        <v>17.0946245510272</v>
+        <v>11.65807575934145</v>
       </c>
       <c r="N5">
-        <v>19.45915705994924</v>
+        <v>13.20109971778941</v>
       </c>
       <c r="O5">
-        <v>27.02688496282124</v>
+        <v>17.1334713633084</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.77044244816542</v>
+        <v>16.81521836928661</v>
       </c>
       <c r="C6">
-        <v>9.362880634183023</v>
+        <v>9.922415095412223</v>
       </c>
       <c r="D6">
-        <v>13.79046118300982</v>
+        <v>8.613925966498062</v>
       </c>
       <c r="E6">
-        <v>14.53242988545739</v>
+        <v>8.539676138777541</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.79114520280768</v>
+        <v>27.18678722876181</v>
       </c>
       <c r="H6">
-        <v>16.89111180045638</v>
+        <v>10.18284332702207</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.787653182661201</v>
+        <v>5.453406818938156</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.85519436966675</v>
+        <v>7.036968347424597</v>
       </c>
       <c r="M6">
-        <v>17.09199455245139</v>
+        <v>11.63621150016777</v>
       </c>
       <c r="N6">
-        <v>19.46171607921167</v>
+        <v>13.20865830714313</v>
       </c>
       <c r="O6">
-        <v>27.0303496254343</v>
+        <v>17.13015992217502</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.87064158778237</v>
+        <v>17.19180567871065</v>
       </c>
       <c r="C7">
-        <v>9.403482578137531</v>
+        <v>10.03367334314318</v>
       </c>
       <c r="D7">
-        <v>13.78393420915499</v>
+        <v>8.644806647698763</v>
       </c>
       <c r="E7">
-        <v>14.52010436887243</v>
+        <v>8.515483325149754</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>38.77003348782416</v>
+        <v>27.33953402334528</v>
       </c>
       <c r="H7">
-        <v>16.87571328887044</v>
+        <v>10.17539904939335</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.786646455533354</v>
+        <v>5.451999422083633</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.85293481315677</v>
+        <v>7.066065205408717</v>
       </c>
       <c r="M7">
-        <v>17.11044664871249</v>
+        <v>11.78745091934497</v>
       </c>
       <c r="N7">
-        <v>19.44411649385581</v>
+        <v>13.15648387417647</v>
       </c>
       <c r="O7">
-        <v>27.00679266754035</v>
+        <v>17.15433388777473</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.31146380494976</v>
+        <v>18.76997006993261</v>
       </c>
       <c r="C8">
-        <v>9.57921944540934</v>
+        <v>10.50945946265285</v>
       </c>
       <c r="D8">
-        <v>13.76025786309675</v>
+        <v>8.790753702804697</v>
       </c>
       <c r="E8">
-        <v>14.4690544498579</v>
+        <v>8.41526969871226</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.70068013517535</v>
+        <v>28.06405010674335</v>
       </c>
       <c r="H8">
-        <v>16.81372408935948</v>
+        <v>10.15689098985836</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.782555784571999</v>
+        <v>5.446481710995541</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.8459691438642</v>
+        <v>7.198679454932225</v>
       </c>
       <c r="M8">
-        <v>17.19666960814494</v>
+        <v>12.44056859963749</v>
       </c>
       <c r="N8">
-        <v>19.37047400727203</v>
+        <v>12.9333916836653</v>
       </c>
       <c r="O8">
-        <v>26.91502240705616</v>
+        <v>17.29108315796371</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.16358813256808</v>
+        <v>21.5945954361096</v>
       </c>
       <c r="C9">
-        <v>9.909898698585886</v>
+        <v>11.38240165563865</v>
       </c>
       <c r="D9">
-        <v>13.73223559167794</v>
+        <v>9.111124556144912</v>
       </c>
       <c r="E9">
-        <v>14.3809037401354</v>
+        <v>8.24298611701742</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.6505775334454</v>
+        <v>29.66284581758499</v>
       </c>
       <c r="H9">
-        <v>16.71360692622949</v>
+        <v>10.17575991862658</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.775790233003345</v>
+        <v>5.438179724864272</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.84304923805124</v>
+        <v>7.472586459541149</v>
       </c>
       <c r="M9">
-        <v>17.38221822880443</v>
+        <v>13.65906153094475</v>
       </c>
       <c r="N9">
-        <v>19.24043542027594</v>
+        <v>12.5211696658083</v>
       </c>
       <c r="O9">
-        <v>26.77899432307539</v>
+        <v>17.67306630771314</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.77576692656239</v>
+        <v>23.55171603145562</v>
       </c>
       <c r="C10">
-        <v>10.14298443005685</v>
+        <v>11.98312348788715</v>
       </c>
       <c r="D10">
-        <v>13.7228470318766</v>
+        <v>9.366616056914248</v>
       </c>
       <c r="E10">
-        <v>14.32338615853562</v>
+        <v>8.131927442867976</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.6663224789155</v>
+        <v>30.94167289939094</v>
       </c>
       <c r="H10">
-        <v>16.65313909344765</v>
+        <v>10.22658301369491</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.771578067811422</v>
+        <v>5.4336462446454</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.84739278269169</v>
+        <v>7.681095258240354</v>
       </c>
       <c r="M10">
-        <v>17.52784078013558</v>
+        <v>14.50845848610704</v>
       </c>
       <c r="N10">
-        <v>19.15358610065249</v>
+        <v>12.23335856228506</v>
       </c>
       <c r="O10">
-        <v>26.70596250278965</v>
+        <v>18.02770429596341</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.05000083549895</v>
+        <v>24.39495187983935</v>
       </c>
       <c r="C11">
-        <v>10.24660672179805</v>
+        <v>12.24692721223398</v>
       </c>
       <c r="D11">
-        <v>13.72100027372758</v>
+        <v>9.487036075250508</v>
       </c>
       <c r="E11">
-        <v>14.29878441266829</v>
+        <v>8.084957245430752</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.68490617209718</v>
+        <v>31.54499971847403</v>
       </c>
       <c r="H11">
-        <v>16.6284756236205</v>
+        <v>10.25844229522946</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.769824992145328</v>
+        <v>5.431931772450828</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.85076388925958</v>
+        <v>7.777286604373381</v>
       </c>
       <c r="M11">
-        <v>17.59594070397812</v>
+        <v>14.88364725973377</v>
       </c>
       <c r="N11">
-        <v>19.11594775380985</v>
+        <v>12.10563095061606</v>
       </c>
       <c r="O11">
-        <v>26.67860361500412</v>
+        <v>18.20595096910738</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.1531384332507</v>
+        <v>24.70756940863097</v>
       </c>
       <c r="C12">
-        <v>10.28547765654989</v>
+        <v>12.34541764042513</v>
       </c>
       <c r="D12">
-        <v>13.72064862660878</v>
+        <v>9.533223360721241</v>
       </c>
       <c r="E12">
-        <v>14.28969250002782</v>
+        <v>8.067698615143534</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>38.69358367546864</v>
+        <v>31.77647592208129</v>
       </c>
       <c r="H12">
-        <v>16.61954533655253</v>
+        <v>10.27182151144563</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.769184471185238</v>
+        <v>5.431333310998605</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.85223974345115</v>
+        <v>7.813884877395104</v>
       </c>
       <c r="M12">
-        <v>17.62198040867753</v>
+        <v>15.02402718986278</v>
       </c>
       <c r="N12">
-        <v>19.10196285620341</v>
+        <v>12.05772039870133</v>
       </c>
       <c r="O12">
-        <v>26.669088113474</v>
+        <v>18.2759413279823</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.13095892502989</v>
+        <v>24.64053834391986</v>
       </c>
       <c r="C13">
-        <v>10.27712283878137</v>
+        <v>12.32426914163376</v>
       </c>
       <c r="D13">
-        <v>13.7207089130854</v>
+        <v>9.523250261839006</v>
       </c>
       <c r="E13">
-        <v>14.29164064209415</v>
+        <v>8.071391796254142</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.69164191960317</v>
+        <v>31.7264909627129</v>
       </c>
       <c r="H13">
-        <v>16.62145042814392</v>
+        <v>10.26888065953113</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.76932138305024</v>
+        <v>5.431459929361041</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.85191305056802</v>
+        <v>7.805995408601276</v>
       </c>
       <c r="M13">
-        <v>17.61636133988167</v>
+        <v>14.99387046248218</v>
       </c>
       <c r="N13">
-        <v>19.10496285296142</v>
+        <v>12.06801849758523</v>
       </c>
       <c r="O13">
-        <v>26.67109985649998</v>
+        <v>18.26075592400594</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.05850077263262</v>
+        <v>24.42080492422619</v>
       </c>
       <c r="C14">
-        <v>10.2498121667629</v>
+        <v>12.25505849273044</v>
       </c>
       <c r="D14">
-        <v>13.72096438124304</v>
+        <v>9.490824263335369</v>
       </c>
       <c r="E14">
-        <v>14.29803192475051</v>
+        <v>8.083526681605264</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.68558722006983</v>
+        <v>31.5639836077191</v>
       </c>
       <c r="H14">
-        <v>16.62773272016463</v>
+        <v>10.25951632905105</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.769771829185688</v>
+        <v>5.43188151449764</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.85088132257055</v>
+        <v>7.780294215250791</v>
       </c>
       <c r="M14">
-        <v>17.59807804849154</v>
+        <v>14.89523081695445</v>
       </c>
       <c r="N14">
-        <v>19.11479184359681</v>
+        <v>12.10168017214328</v>
       </c>
       <c r="O14">
-        <v>26.67780383179138</v>
+        <v>18.21165885037536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.01402295107649</v>
+        <v>24.28534179483426</v>
       </c>
       <c r="C15">
-        <v>10.23303495356217</v>
+        <v>12.21248063094682</v>
       </c>
       <c r="D15">
-        <v>13.72116611143096</v>
+        <v>9.471038341699387</v>
       </c>
       <c r="E15">
-        <v>14.30197595528073</v>
+        <v>8.09102894631296</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.68209206209042</v>
+        <v>31.4648323908417</v>
       </c>
       <c r="H15">
-        <v>16.63163410864724</v>
+        <v>10.25395335145394</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.770050775339804</v>
+        <v>5.432146383405892</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.85027527163036</v>
+        <v>7.764573410536565</v>
       </c>
       <c r="M15">
-        <v>17.58691133525956</v>
+        <v>14.83458809338875</v>
       </c>
       <c r="N15">
-        <v>19.12084724825276</v>
+        <v>12.12235838233986</v>
       </c>
       <c r="O15">
-        <v>26.68202025799881</v>
+        <v>18.18191169938975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.75775109384371</v>
+        <v>23.49566742468494</v>
       </c>
       <c r="C16">
-        <v>10.13616207208194</v>
+        <v>11.96568876207143</v>
       </c>
       <c r="D16">
-        <v>13.72301642772933</v>
+        <v>9.358829338777678</v>
       </c>
       <c r="E16">
-        <v>14.32502534941173</v>
+        <v>8.135069958268307</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.66533767339793</v>
+        <v>30.90267019500439</v>
       </c>
       <c r="H16">
-        <v>16.65480815887229</v>
+        <v>10.22468176479554</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.771695906586867</v>
+        <v>5.433765351264066</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.84720043534458</v>
+        <v>7.674834154479496</v>
       </c>
       <c r="M16">
-        <v>17.52342634676856</v>
+        <v>14.48370592996229</v>
       </c>
       <c r="N16">
-        <v>19.15608339920653</v>
+        <v>12.24176996467723</v>
       </c>
       <c r="O16">
-        <v>26.70786859888087</v>
+        <v>18.01640110961304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.59937680438963</v>
+        <v>22.99922175969768</v>
       </c>
       <c r="C17">
-        <v>10.07610051723811</v>
+        <v>11.81183056866532</v>
       </c>
       <c r="D17">
-        <v>13.72477182136073</v>
+        <v>9.291055586493163</v>
       </c>
       <c r="E17">
-        <v>14.33956539769466</v>
+        <v>8.163009046619942</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.65798367811375</v>
+        <v>30.56326110527318</v>
       </c>
       <c r="H17">
-        <v>16.66975325379403</v>
+        <v>10.2090043815903</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.772746821318083</v>
+        <v>5.434848134164603</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.84567054047533</v>
+        <v>7.620110611463931</v>
       </c>
       <c r="M17">
-        <v>17.4849449895912</v>
+        <v>14.26551563905113</v>
       </c>
       <c r="N17">
-        <v>19.17817786372924</v>
+        <v>12.31584208683739</v>
       </c>
       <c r="O17">
-        <v>26.72522871241574</v>
+        <v>17.91924317870747</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.50788961518433</v>
+        <v>22.70924462275699</v>
       </c>
       <c r="C18">
-        <v>10.04132915709196</v>
+        <v>11.72244642177229</v>
       </c>
       <c r="D18">
-        <v>13.72600971359642</v>
+        <v>9.252469829989385</v>
       </c>
       <c r="E18">
-        <v>14.3480756263936</v>
+        <v>8.179411977802806</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38.65482910450606</v>
+        <v>30.37007884549193</v>
       </c>
       <c r="H18">
-        <v>16.67861691787734</v>
+        <v>10.20080631824849</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.773366634557389</v>
+        <v>5.435503611805843</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.84492199395957</v>
+        <v>7.588762304949564</v>
       </c>
       <c r="M18">
-        <v>17.46298710540325</v>
+        <v>14.1389675548533</v>
       </c>
       <c r="N18">
-        <v>19.19106206972035</v>
+        <v>12.35874764366822</v>
       </c>
       <c r="O18">
-        <v>26.73576563026863</v>
+        <v>17.86494994720707</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.47684894839226</v>
+        <v>22.61029957933845</v>
       </c>
       <c r="C19">
-        <v>10.02951812414573</v>
+        <v>11.69203130037209</v>
       </c>
       <c r="D19">
-        <v>13.72646806756415</v>
+        <v>9.239473859201397</v>
       </c>
       <c r="E19">
-        <v>14.35098233883516</v>
+        <v>8.185022435688076</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38.65394573247898</v>
+        <v>30.30502343549346</v>
       </c>
       <c r="H19">
-        <v>16.68166395950081</v>
+        <v>10.19816951309376</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.77357913346056</v>
+        <v>5.435731138095076</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.84469115804741</v>
+        <v>7.57817078414463</v>
       </c>
       <c r="M19">
-        <v>17.45558315160757</v>
+        <v>14.09594291204721</v>
       </c>
       <c r="N19">
-        <v>19.19545470738565</v>
+        <v>12.37332656969733</v>
       </c>
       <c r="O19">
-        <v>26.73942797773737</v>
+        <v>17.84683828853913</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.61627757302591</v>
+        <v>23.05252772322652</v>
       </c>
       <c r="C20">
-        <v>10.08251767822602</v>
+        <v>11.82830139276213</v>
       </c>
       <c r="D20">
-        <v>13.72456134120976</v>
+        <v>9.298229362749719</v>
       </c>
       <c r="E20">
-        <v>14.33800235653538</v>
+        <v>8.160000286861544</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>38.65865524910448</v>
+        <v>30.59918167304107</v>
       </c>
       <c r="H20">
-        <v>16.66813462067265</v>
+        <v>10.21058806546688</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.772633361327763</v>
+        <v>5.434729481633264</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.84581980956027</v>
+        <v>7.625923006472488</v>
       </c>
       <c r="M20">
-        <v>17.48902333249409</v>
+        <v>14.28885178486538</v>
       </c>
       <c r="N20">
-        <v>19.17580765625751</v>
+        <v>12.30792583099212</v>
       </c>
       <c r="O20">
-        <v>26.72332357342468</v>
+        <v>17.92942085988184</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.07980347554717</v>
+        <v>24.4855271456418</v>
       </c>
       <c r="C21">
-        <v>10.25784414726369</v>
+        <v>12.2754258235704</v>
       </c>
       <c r="D21">
-        <v>13.7208799161355</v>
+        <v>9.500332768479296</v>
       </c>
       <c r="E21">
-        <v>14.2961485689012</v>
+        <v>8.079947897088648</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.68732114069272</v>
+        <v>31.61163500010668</v>
       </c>
       <c r="H21">
-        <v>16.62587634984677</v>
+        <v>10.26223071497255</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.769638889976861</v>
+        <v>5.431756300353425</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.85117896850505</v>
+        <v>7.787838744881993</v>
       </c>
       <c r="M21">
-        <v>17.60344158407528</v>
+        <v>14.92425029276663</v>
       </c>
       <c r="N21">
-        <v>19.11189756682018</v>
+        <v>12.09178053409871</v>
       </c>
       <c r="O21">
-        <v>26.67581177552943</v>
+        <v>18.22601176790222</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.37857172397374</v>
+        <v>25.38307173175204</v>
       </c>
       <c r="C22">
-        <v>10.37027224694675</v>
+        <v>12.559435044504</v>
       </c>
       <c r="D22">
-        <v>13.72049990518639</v>
+        <v>9.635832256519361</v>
       </c>
       <c r="E22">
-        <v>14.27010145435497</v>
+        <v>8.030715566002439</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>38.71561452849729</v>
+        <v>32.29083493342075</v>
       </c>
       <c r="H22">
-        <v>16.60064357804893</v>
+        <v>10.30367261944253</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.767817765414817</v>
+        <v>5.430109505247474</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.8558424222935</v>
+        <v>7.89465829989321</v>
       </c>
       <c r="M22">
-        <v>17.67968063586416</v>
+        <v>15.32960667226023</v>
       </c>
       <c r="N22">
-        <v>19.07168988627236</v>
+        <v>11.95318099155582</v>
       </c>
       <c r="O22">
-        <v>26.64968423831109</v>
+        <v>18.43440153865672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.21952604535407</v>
+        <v>24.90757983508854</v>
       </c>
       <c r="C23">
-        <v>10.31047173483442</v>
+        <v>12.40861822666204</v>
       </c>
       <c r="D23">
-        <v>13.72051768468714</v>
+        <v>9.563206662546062</v>
       </c>
       <c r="E23">
-        <v>14.28388390564089</v>
+        <v>8.056703239406309</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>38.69964032214261</v>
+        <v>31.92676081013906</v>
       </c>
       <c r="H23">
-        <v>16.61389241749652</v>
+        <v>10.28083148764198</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.768777334259187</v>
+        <v>5.430961042812817</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.85324768661736</v>
+        <v>7.837561622392217</v>
       </c>
       <c r="M23">
-        <v>17.638861888502</v>
+        <v>15.11419125183883</v>
       </c>
       <c r="N23">
-        <v>19.0930069371162</v>
+        <v>12.02691110488235</v>
       </c>
       <c r="O23">
-        <v>26.66317799840384</v>
+        <v>18.32183039890555</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.60863808511558</v>
+        <v>23.02844231799431</v>
       </c>
       <c r="C24">
-        <v>10.07961722927716</v>
+        <v>11.82085782339115</v>
       </c>
       <c r="D24">
-        <v>13.72465578687283</v>
+        <v>9.294984918997848</v>
       </c>
       <c r="E24">
-        <v>14.33870853717298</v>
+        <v>8.161359488242992</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38.65834828833533</v>
+        <v>30.58293590781335</v>
       </c>
       <c r="H24">
-        <v>16.6688655589184</v>
+        <v>10.20986954761431</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.772684607899784</v>
+        <v>5.434783021800312</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.8457519168239</v>
+        <v>7.623294869230329</v>
       </c>
       <c r="M24">
-        <v>17.48717899681149</v>
+        <v>14.27830495662006</v>
       </c>
       <c r="N24">
-        <v>19.17687866066305</v>
+        <v>12.31150377171766</v>
       </c>
       <c r="O24">
-        <v>26.72418315384617</v>
+        <v>17.9248146627553</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.93506089655152</v>
+        <v>20.83686290519813</v>
       </c>
       <c r="C25">
-        <v>9.822077835351577</v>
+        <v>11.15312944502762</v>
       </c>
       <c r="D25">
-        <v>13.73784746164813</v>
+        <v>9.020865259677683</v>
       </c>
       <c r="E25">
-        <v>14.40347515194868</v>
+        <v>8.286926184770135</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.65491001635363</v>
+        <v>29.21167704644255</v>
       </c>
       <c r="H25">
-        <v>16.73839386818306</v>
+        <v>10.16440579182031</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.777486766856068</v>
+        <v>5.440153062321754</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.84269512026466</v>
+        <v>7.397126081038316</v>
       </c>
       <c r="M25">
-        <v>17.33033383953335</v>
+        <v>13.33698221301945</v>
       </c>
       <c r="N25">
-        <v>19.27408305388925</v>
+        <v>12.63002072001108</v>
       </c>
       <c r="O25">
-        <v>26.81107635660421</v>
+        <v>17.55704178201809</v>
       </c>
     </row>
   </sheetData>
